--- a/wfp-python/data/word_meta.xlsx
+++ b/wfp-python/data/word_meta.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
   <si>
-    <t>环境管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>节能减排</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -914,6 +910,10 @@
   </si>
   <si>
     <t>低噪声,噪声污染,消毒,烟粉,隔音,达标排放,无污染,低消耗,可持续,无害化,零排放,关停,无事故,减排,噪声控制,经济性,无纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色环境管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1384,7 +1384,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1397,19 +1397,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1418,10 +1418,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
@@ -1430,13 +1430,13 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30">
@@ -1445,10 +1445,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
@@ -1457,24 +1457,24 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
       <c r="A6" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
@@ -1483,10 +1483,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
@@ -1495,10 +1495,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1507,10 +1507,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1519,24 +1519,24 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
       <c r="A11" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30">
@@ -1545,24 +1545,24 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1">
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1571,24 +1571,24 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1597,10 +1597,10 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1609,10 +1609,10 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1621,10 +1621,10 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1633,10 +1633,10 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1670,7 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>7506</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>5862</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>5448</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>4805</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>2794</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>2727</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>2693</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>2668</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10">
         <v>2651</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11">
         <v>2574</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <v>2528</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13">
         <v>2352</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14">
         <v>2341</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15">
         <v>2248</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16">
         <v>2118</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <v>2041</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18">
         <v>1991</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19">
         <v>1917</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20">
         <v>1868</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21">
         <v>1821</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22">
         <v>1744</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23">
         <v>1737</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24">
         <v>1626</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25">
         <v>1553</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26">
         <v>1546</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27">
         <v>1499</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28">
         <v>1445</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29">
         <v>1442</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30">
         <v>1344</v>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31">
         <v>1291</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32">
         <v>1273</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33">
         <v>1213</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34">
         <v>1195</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B35">
         <v>1182</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36">
         <v>1180</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B37">
         <v>1177</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38">
         <v>1113</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39">
         <v>1108</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40">
         <v>1072</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41">
         <v>1055</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42">
         <v>1017</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B43">
         <v>1011</v>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B44">
         <v>1003</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B45">
         <v>982</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B46">
         <v>982</v>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B47">
         <v>980</v>
@@ -2176,7 +2176,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B48">
         <v>935</v>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B49">
         <v>929</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B50">
         <v>916</v>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B51">
         <v>890</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B52">
         <v>861</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B53">
         <v>842</v>
@@ -2242,7 +2242,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B54">
         <v>835</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B55">
         <v>828</v>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B56">
         <v>823</v>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B57">
         <v>814</v>
@@ -2286,7 +2286,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B58">
         <v>800</v>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B59">
         <v>778</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B60">
         <v>763</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B61">
         <v>754</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B62">
         <v>740</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B63">
         <v>737</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B64">
         <v>690</v>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B65">
         <v>683</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B66">
         <v>682</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B67">
         <v>651</v>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B68">
         <v>635</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B69">
         <v>616</v>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B70">
         <v>614</v>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B71">
         <v>609</v>
@@ -2440,7 +2440,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B72">
         <v>585</v>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B73">
         <v>581</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B74">
         <v>575</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B75">
         <v>567</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B76">
         <v>563</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B77">
         <v>561</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B78">
         <v>557</v>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B79">
         <v>556</v>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B80">
         <v>555</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B81">
         <v>534</v>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B82">
         <v>526</v>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B83">
         <v>526</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B84">
         <v>517</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B85">
         <v>514</v>
@@ -2594,7 +2594,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B86">
         <v>508</v>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B87">
         <v>493</v>
@@ -2616,7 +2616,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B88">
         <v>490</v>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B89">
         <v>478</v>
@@ -2638,7 +2638,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B90">
         <v>476</v>
@@ -2649,7 +2649,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B91">
         <v>462</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B92">
         <v>438</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B93">
         <v>430</v>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B94">
         <v>422</v>
@@ -2693,7 +2693,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B95">
         <v>418</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B96">
         <v>417</v>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B97">
         <v>417</v>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B98">
         <v>412</v>
@@ -2737,7 +2737,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B99">
         <v>410</v>
@@ -2748,7 +2748,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B100">
         <v>409</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B101">
         <v>408</v>
@@ -2770,7 +2770,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B102">
         <v>405</v>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B103">
         <v>404</v>
@@ -2792,7 +2792,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B104">
         <v>403</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B105">
         <v>395</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B106">
         <v>395</v>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B107">
         <v>391</v>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B108">
         <v>390</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B109">
         <v>387</v>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B110">
         <v>383</v>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B111">
         <v>382</v>
@@ -2880,7 +2880,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B112">
         <v>377</v>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B113">
         <v>376</v>
@@ -2902,7 +2902,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B114">
         <v>359</v>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B115">
         <v>359</v>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B116">
         <v>348</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B117">
         <v>330</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B118">
         <v>328</v>
@@ -2957,7 +2957,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B119">
         <v>328</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B120">
         <v>324</v>
@@ -2979,7 +2979,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B121">
         <v>322</v>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B122">
         <v>321</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B123">
         <v>316</v>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B124">
         <v>314</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B125">
         <v>312</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B126">
         <v>307</v>
@@ -3045,7 +3045,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B127">
         <v>302</v>
@@ -3056,7 +3056,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B128">
         <v>292</v>
@@ -3067,7 +3067,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B129">
         <v>291</v>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B130">
         <v>287</v>
@@ -3089,7 +3089,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B131">
         <v>274</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B132">
         <v>271</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B133">
         <v>266</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B134">
         <v>266</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B135">
         <v>258</v>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B136">
         <v>254</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B137">
         <v>247</v>
@@ -3166,7 +3166,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B138">
         <v>241</v>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B139">
         <v>231</v>
@@ -3188,7 +3188,7 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B140">
         <v>230</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B141">
         <v>226</v>
@@ -3210,7 +3210,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B142">
         <v>223</v>
@@ -3221,7 +3221,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B143">
         <v>221</v>
@@ -3232,7 +3232,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B144">
         <v>212</v>
@@ -3243,7 +3243,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B145">
         <v>210</v>
@@ -3254,7 +3254,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B146">
         <v>207</v>
@@ -3265,7 +3265,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B147">
         <v>204</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B148">
         <v>197</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B149">
         <v>197</v>
@@ -3298,7 +3298,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B150">
         <v>195</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B151">
         <v>192</v>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B152">
         <v>185</v>
@@ -3331,7 +3331,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B153">
         <v>183</v>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B154">
         <v>181</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B155">
         <v>181</v>
@@ -3364,7 +3364,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B156">
         <v>178</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B157">
         <v>177</v>
@@ -3386,7 +3386,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B158">
         <v>174</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B159">
         <v>172</v>
@@ -3408,7 +3408,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B160">
         <v>172</v>
@@ -3419,7 +3419,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B161">
         <v>171</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B162">
         <v>169</v>
@@ -3441,7 +3441,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B163">
         <v>167</v>
@@ -3452,7 +3452,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B164">
         <v>159</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B165">
         <v>159</v>
@@ -3474,7 +3474,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B166">
         <v>155</v>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B167">
         <v>152</v>
@@ -3496,7 +3496,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B168">
         <v>151</v>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B169">
         <v>151</v>
@@ -3518,7 +3518,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B170">
         <v>144</v>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B171">
         <v>144</v>
@@ -3540,7 +3540,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B172">
         <v>141</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B173">
         <v>140</v>
@@ -3562,7 +3562,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B174">
         <v>140</v>
@@ -3573,7 +3573,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B175">
         <v>133</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B176">
         <v>131</v>
@@ -3595,7 +3595,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B177">
         <v>131</v>
@@ -3606,7 +3606,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B178">
         <v>130</v>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B179">
         <v>129</v>
@@ -3628,7 +3628,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B180">
         <v>129</v>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B181">
         <v>128</v>
@@ -3650,7 +3650,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B182">
         <v>128</v>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B183">
         <v>127</v>
@@ -3672,7 +3672,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B184">
         <v>127</v>
@@ -3683,7 +3683,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B185">
         <v>126</v>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B186">
         <v>125</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B187">
         <v>123</v>
@@ -3716,7 +3716,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B188">
         <v>123</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B189">
         <v>122</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B190">
         <v>121</v>
@@ -3749,7 +3749,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B191">
         <v>121</v>
@@ -3760,7 +3760,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B192">
         <v>120</v>
@@ -3771,7 +3771,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B193">
         <v>119</v>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B194">
         <v>114</v>
@@ -3793,7 +3793,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B195">
         <v>113</v>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B196">
         <v>110</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B197">
         <v>107</v>
@@ -3826,7 +3826,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B198">
         <v>106</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B199">
         <v>105</v>
@@ -3848,7 +3848,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B200">
         <v>102</v>
@@ -3859,7 +3859,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B201">
         <v>99</v>
@@ -3870,7 +3870,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B202">
         <v>98</v>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B203">
         <v>98</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B204">
         <v>96</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B205">
         <v>96</v>
@@ -3914,7 +3914,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B206">
         <v>92</v>
@@ -3925,7 +3925,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B207">
         <v>90</v>
@@ -3936,7 +3936,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B208">
         <v>88</v>
@@ -3947,7 +3947,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B209">
         <v>86</v>
@@ -3958,7 +3958,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B210">
         <v>86</v>
@@ -3969,7 +3969,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B211">
         <v>85</v>
@@ -3980,7 +3980,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B212">
         <v>84</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B213">
         <v>83</v>
@@ -4002,7 +4002,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B214">
         <v>80</v>
@@ -4013,7 +4013,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B215">
         <v>79</v>
@@ -4024,7 +4024,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B216">
         <v>79</v>
@@ -4035,7 +4035,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B217">
         <v>77</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B218">
         <v>77</v>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B219">
         <v>76</v>
@@ -4068,7 +4068,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B220">
         <v>75</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B221">
         <v>75</v>
@@ -4090,7 +4090,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B222">
         <v>74</v>
@@ -4101,7 +4101,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B223">
         <v>74</v>
@@ -4112,7 +4112,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B224">
         <v>72</v>
@@ -4123,7 +4123,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B225">
         <v>56</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B226">
         <v>55</v>
@@ -4145,7 +4145,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B227">
         <v>51</v>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B228">
         <v>49</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B229">
         <v>44</v>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B230">
         <v>44</v>
@@ -4189,7 +4189,7 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B231">
         <v>40</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B232">
         <v>36</v>
@@ -4211,7 +4211,7 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B233">
         <v>33</v>
@@ -4222,7 +4222,7 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B234">
         <v>31</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B235">
         <v>29</v>
@@ -4244,7 +4244,7 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B236">
         <v>28</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B237">
         <v>11</v>
@@ -4266,7 +4266,7 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B238">
         <v>6</v>
@@ -4277,7 +4277,7 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B239">
         <v>5</v>
@@ -4288,7 +4288,7 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B240">
         <v>2</v>

--- a/wfp-python/data/word_meta.xlsx
+++ b/wfp-python/data/word_meta.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16800" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14500" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="322">
   <si>
     <t>节能减排</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -915,13 +916,130 @@
   <si>
     <t>绿色环境管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业名称</t>
+  </si>
+  <si>
+    <t>股票代码</t>
+  </si>
+  <si>
+    <t>行业</t>
+  </si>
+  <si>
+    <t>EDI得分</t>
+  </si>
+  <si>
+    <t>众兴菌业</t>
+  </si>
+  <si>
+    <t>食品生产（IV）</t>
+  </si>
+  <si>
+    <t>中航重机</t>
+  </si>
+  <si>
+    <t>工业机械</t>
+  </si>
+  <si>
+    <t>中国嘉陵</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>三丰智能</t>
+  </si>
+  <si>
+    <t>理工环科</t>
+  </si>
+  <si>
+    <t>电子电气组件与设备</t>
+  </si>
+  <si>
+    <t>郑州煤电</t>
+  </si>
+  <si>
+    <t>煤炭开采</t>
+  </si>
+  <si>
+    <t>万年青</t>
+  </si>
+  <si>
+    <t>建材与构件</t>
+  </si>
+  <si>
+    <t>红星发展</t>
+  </si>
+  <si>
+    <t>通用化工品</t>
+  </si>
+  <si>
+    <t>沙隆达A</t>
+  </si>
+  <si>
+    <t>特种化工品</t>
+  </si>
+  <si>
+    <t>凯迪生态</t>
+  </si>
+  <si>
+    <t>电力（IV）</t>
+  </si>
+  <si>
+    <t>沈阳化工</t>
+  </si>
+  <si>
+    <t>新国都</t>
+  </si>
+  <si>
+    <t>露天煤业</t>
+  </si>
+  <si>
+    <t>华锐风电</t>
+  </si>
+  <si>
+    <t>奥特迅</t>
+  </si>
+  <si>
+    <t>佳士科技</t>
+  </si>
+  <si>
+    <t>中国一重</t>
+  </si>
+  <si>
+    <t>新元科技</t>
+  </si>
+  <si>
+    <t>杭电股份</t>
+  </si>
+  <si>
+    <t>兰太实业</t>
+  </si>
+  <si>
+    <t>三川智慧</t>
+  </si>
+  <si>
+    <t>隆华节能</t>
+  </si>
+  <si>
+    <t>佰利联</t>
+  </si>
+  <si>
+    <t>海王生物</t>
+  </si>
+  <si>
+    <t>制药</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -955,6 +1073,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -964,7 +1089,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -972,8 +1097,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1003,8 +1180,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1022,8 +1207,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="37">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1038,6 +1241,10 @@
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1052,6 +1259,10 @@
     <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1383,12 +1594,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
     <col min="2" max="2" width="4.33203125" customWidth="1"/>
     <col min="3" max="3" width="41.83203125" customWidth="1"/>
     <col min="4" max="4" width="47" customWidth="1"/>
@@ -4307,4 +4519,375 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" thickBot="1">
+      <c r="A1" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="11">
+        <v>2772</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0.97048915499999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" thickBot="1">
+      <c r="A3" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="11">
+        <v>600765</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.968879096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" thickBot="1">
+      <c r="A4" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" s="11">
+        <v>600877</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.96530795199999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" thickBot="1">
+      <c r="A5" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" s="11">
+        <v>300276</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.96323452200000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2322</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.96280494599999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" thickBot="1">
+      <c r="A7" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B7" s="11">
+        <v>600121</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.96195713100000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" thickBot="1">
+      <c r="A8" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" s="11">
+        <v>789</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.94640267099999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" thickBot="1">
+      <c r="A9" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B9" s="11">
+        <v>600367</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.94118216200000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" thickBot="1">
+      <c r="A10" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="B10" s="11">
+        <v>553</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.93346625800000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" thickBot="1">
+      <c r="A11" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11" s="11">
+        <v>939</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.93216880599999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" thickBot="1">
+      <c r="A12" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" s="11">
+        <v>698</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.92550179899999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" thickBot="1">
+      <c r="A13" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B13" s="11">
+        <v>300130</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.90080642600000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" thickBot="1">
+      <c r="A14" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="B14" s="11">
+        <v>2128</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.89816581900000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16" thickBot="1">
+      <c r="A15" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="B15" s="11">
+        <v>601558</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0.897173954</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16" thickBot="1">
+      <c r="A16" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B16" s="11">
+        <v>2227</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.895460531</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" thickBot="1">
+      <c r="A17" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="B17" s="11">
+        <v>300193</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.89182038100000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" thickBot="1">
+      <c r="A18" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="B18" s="11">
+        <v>601106</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0.89177297600000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16" thickBot="1">
+      <c r="A19" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B19" s="11">
+        <v>300472</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.88883136600000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16" thickBot="1">
+      <c r="A20" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="B20" s="11">
+        <v>603618</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.88682956000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16" thickBot="1">
+      <c r="A21" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="B21" s="11">
+        <v>600328</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.88367996900000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16" thickBot="1">
+      <c r="A22" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B22" s="11">
+        <v>300066</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0.87263402199999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16" thickBot="1">
+      <c r="A23" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="B23" s="11">
+        <v>300263</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0.87212280900000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16" thickBot="1">
+      <c r="A24" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="B24" s="11">
+        <v>2601</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0.87163607700000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16" thickBot="1">
+      <c r="A25" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B25" s="11">
+        <v>78</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0.86309499599999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>